--- a/all_wt_results.xlsx
+++ b/all_wt_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,701 +448,801 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>R011606_0070_001</t>
+          <t>R301606_2160_001</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4899.600025177002</v>
+        <v>348499.2009277344</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>R011606_0070_002</t>
+          <t>R301606_2160_002</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5118.000038146973</v>
+        <v>344546.0997657776</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R011606_0070_003</t>
+          <t>R301606_2160_003</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5095.200180053711</v>
+        <v>347307.1981811523</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R011606_0070_004</t>
+          <t>R301606_2160_004</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5377.200019836426</v>
+        <v>344212.1012191772</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>R011606_0070_005</t>
+          <t>R301606_2160_005</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5259.600051879883</v>
+        <v>345883.3015899658</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>R021606_0140_001</t>
+          <t>R301606_2160_006</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13905.9002456665</v>
+        <v>350379.7995529175</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>R021606_0140_002</t>
+          <t>R301606_2160_007</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13393.50010299683</v>
+        <v>352627.7976493835</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>R021606_0140_003</t>
+          <t>R301606_2160_008</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13921.8000869751</v>
+        <v>348655.7996520996</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>R021606_0140_004</t>
+          <t>R301606_2160_009</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14617.80015563965</v>
+        <v>346141.5994529724</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>R021606_0140_005</t>
+          <t>R301606_2160_010</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13735.20016860962</v>
+        <v>345627.1002235413</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>R041606_0280_001</t>
+          <t>R301606_2160_011</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34025.20034408569</v>
+        <v>344565.3000183105</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>R041606_0280_002</t>
+          <t>R301606_2160_012</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31942.90021514893</v>
+        <v>348127.8975524902</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>R041606_0280_003</t>
+          <t>R301606_2160_013</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32844.80025100708</v>
+        <v>341426.1006813049</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>R041606_0280_004</t>
+          <t>R301606_2160_014</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>33565.6003112793</v>
+        <v>348073.9000473022</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>R041606_0280_005</t>
+          <t>R301606_2160_015</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33691.40040588379</v>
+        <v>346795.5998001099</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>R061606_0430_001</t>
+          <t>R301606_2160_016</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>56455.70032501221</v>
+        <v>343771.4002075195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>R061606_0430_002</t>
+          <t>R301606_2160_017</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>54501.0006980896</v>
+        <v>344402.9009170532</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>R061606_0430_003</t>
+          <t>R301606_2160_018</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54403.20059204102</v>
+        <v>348970.0013427734</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R061606_0430_004</t>
+          <t>R301606_2160_019</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53290.2004776001</v>
+        <v>350078.699596405</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>R061606_0430_005</t>
+          <t>R301606_2160_020</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>55430.5005531311</v>
+        <v>345422.6008758545</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>R081606_0570_001</t>
+          <t>R301608_2880_001</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74635.10084915161</v>
+        <v>497210.1003112793</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>R081606_0570_002</t>
+          <t>R301608_2880_002</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>77332.9003868103</v>
+        <v>502116.9980773926</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>R081606_0570_003</t>
+          <t>R301608_2880_003</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>76556.50085067749</v>
+        <v>502627.5002250671</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>R081606_0570_004</t>
+          <t>R301608_2880_004</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>75938.10050201416</v>
+        <v>503958.8005447388</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>R081606_0570_005</t>
+          <t>R301608_2880_005</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>76193.70043563843</v>
+        <v>499865.1002349854</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>R101606_0720_001</t>
+          <t>R301608_2880_006</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>102614.6001434326</v>
+        <v>499226.8994369507</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>R101606_0720_002</t>
+          <t>R301608_2880_007</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97051.60036468506</v>
+        <v>496905.9003143311</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>R101606_0720_003</t>
+          <t>R301608_2880_008</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100068.100528717</v>
+        <v>493372.1006011963</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>R101606_0720_004</t>
+          <t>R301608_2880_009</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98736.00053024292</v>
+        <v>501641.0002174377</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>R101606_0720_005</t>
+          <t>R301608_2880_010</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98124.10065841675</v>
+        <v>499005.4011039734</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>R011608_0090_001</t>
+          <t>R301608_2880_011</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7434.000080108643</v>
+        <v>499603.5014419556</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>R011608_0090_002</t>
+          <t>R301608_2880_012</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7147.200038909912</v>
+        <v>496623.6994018555</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>R011608_0090_003</t>
+          <t>R301608_2880_013</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7438.800025939941</v>
+        <v>497928.9003257751</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>R011608_0090_004</t>
+          <t>R301608_2880_014</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7256.400009155273</v>
+        <v>495009.7997207642</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>R011608_0090_005</t>
+          <t>R301608_2880_015</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7335.600048065186</v>
+        <v>502827.8999214172</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>R021608_0190_001</t>
+          <t>R301608_2880_016</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21863.40023803711</v>
+        <v>498359.3009147644</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>R021608_0190_002</t>
+          <t>R301608_2880_017</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>20898.90015792847</v>
+        <v>500920.2002716064</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>R021608_0190_003</t>
+          <t>R301608_2880_018</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>21424.20018768311</v>
+        <v>501014.0996932983</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>R021608_0190_004</t>
+          <t>R301608_2880_019</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20588.10013961792</v>
+        <v>507566.598449707</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>R021608_0190_005</t>
+          <t>R301608_2880_020</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>21913.20012283325</v>
+        <v>504053.9996910095</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>R041608_0380_001</t>
+          <t>U301606_2160_001</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>49877.40054702759</v>
+        <v>370770.9988059998</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>R041608_0380_002</t>
+          <t>U301606_2160_002</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50310.20051574707</v>
+        <v>377384.5023841858</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>R041608_0380_003</t>
+          <t>U301606_2160_003</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>50055.00051116943</v>
+        <v>369534.8002128601</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>R041608_0380_004</t>
+          <t>U301606_2160_004</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>50080.10061264038</v>
+        <v>365493.5970878601</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>R041608_0380_005</t>
+          <t>U301606_2160_005</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50385.80046081543</v>
+        <v>371224.6996231079</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>R061608_0570_001</t>
+          <t>U301606_2160_006</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>80231.60078430176</v>
+        <v>373090.800239563</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>R061608_0570_002</t>
+          <t>U301606_2160_007</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>81476.40081787109</v>
+        <v>364708.5982894897</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>R061608_0570_003</t>
+          <t>U301606_2160_008</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>80245.40083694458</v>
+        <v>369928.2005157471</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>R061608_0570_004</t>
+          <t>U301606_2160_009</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>80718.80094909668</v>
+        <v>379242.6994094849</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>R061608_0570_005</t>
+          <t>U301606_2160_010</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>84859.20059585571</v>
+        <v>366297.1960372925</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>U011606_0070_001</t>
+          <t>U301606_2160_011</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>5610.00012588501</v>
+        <v>368454.1996574402</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>U011606_0070_002</t>
+          <t>U301606_2160_012</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>5684.399936676025</v>
+        <v>365738.4971618652</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>U021606_0140_001</t>
+          <t>U301606_2160_013</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>15148.20018386841</v>
+        <v>369999.5995903015</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>U021606_0140_002</t>
+          <t>U301606_2160_014</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>15692.70013809204</v>
+        <v>371046.6996040344</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>U041606_0280_001</t>
+          <t>U301606_2160_015</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>34903.80018234253</v>
+        <v>380648.8990859985</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>U041606_0280_002</t>
+          <t>U301606_2160_016</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>34315.00045394897</v>
+        <v>378249.4010276794</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>U061606_0430_001</t>
+          <t>U301606_2160_017</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>55673.60034561157</v>
+        <v>367252.100933075</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>U061606_0430_002</t>
+          <t>U301606_2160_018</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>57820.40059280396</v>
+        <v>367026.0012435913</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>U081606_0570_001</t>
+          <t>U301606_2160_019</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>80075.70049285889</v>
+        <v>370053.0991477966</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>U081606_0570_002</t>
+          <t>U301606_2160_020</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>76309.80030822754</v>
+        <v>368363.6040153503</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>U101606_0720_001</t>
+          <t>U301608_2880_001</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>106860.1005706787</v>
+        <v>545376.1052780151</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>U101606_0720_002</t>
+          <t>U301608_2880_002</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>105893.6003990173</v>
+        <v>515982.6017341614</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>U011608_0090_001</t>
+          <t>U301608_2880_003</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>7489.200199127197</v>
+        <v>529878.9007949829</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>U011608_0090_002</t>
+          <t>U301608_2880_004</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>8338.800186157227</v>
+        <v>544157.7998008728</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>U021608_0190_001</t>
+          <t>U301608_2880_005</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>21228.30034637451</v>
+        <v>548411.5972900391</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>U021608_0190_002</t>
+          <t>U301608_2880_006</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>22349.10026931763</v>
+        <v>534753.8994255066</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>U041608_0380_001</t>
+          <t>U301608_2880_007</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>51092.3000831604</v>
+        <v>543598.1001663208</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>U041608_0380_002</t>
+          <t>U301608_2880_008</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>51409.50034332275</v>
+        <v>535520.3007736206</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>U061608_0570_001</t>
+          <t>U301608_2880_009</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>81033.80054473877</v>
+        <v>536529.9002418518</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>U061608_0570_002</t>
+          <t>U301608_2880_010</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>84382.40101623535</v>
+        <v>540152.3047676086</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>U301608_2880_011</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>550684.8967933655</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>U301608_2880_012</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>549350.8972206116</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>U301608_2880_013</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>537656.6009674072</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>U301608_2880_014</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>552884.2026634216</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>U301608_2880_015</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>533617.3005599976</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>U301608_2880_016</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>544949.2989654541</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>U301608_2880_017</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>539444.0991592407</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>U301608_2880_018</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>542564.9998970032</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>U301608_2880_019</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>538233.9003334045</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>U301608_2880_020</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>553282.3005599976</v>
       </c>
     </row>
   </sheetData>
